--- a/BalanceSheet/HIG_bal.xlsx
+++ b/BalanceSheet/HIG_bal.xlsx
@@ -4327,7 +4327,7 @@
         <v>4048000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>4736000000.0</v>
+        <v>4586000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>4556000000.0</v>
@@ -4454,7 +4454,7 @@
         <v>4349000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>4998000000.0</v>
+        <v>4848000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>4846000000.0</v>
